--- a/SimSim-DBSchema.xlsx
+++ b/SimSim-DBSchema.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="150">
   <si>
     <t>ENTITIES</t>
   </si>
@@ -66,9 +66,6 @@
     <t>LOCKS</t>
   </si>
   <si>
-    <t>lock_id</t>
-  </si>
-  <si>
     <t>LOCK_ACTIVITY</t>
   </si>
   <si>
@@ -207,9 +204,6 @@
     <t>IS_WEB_REGISTERED</t>
   </si>
   <si>
-    <t>USER_STATE_ID</t>
-  </si>
-  <si>
     <t>AVATAR_URL</t>
   </si>
   <si>
@@ -282,18 +276,9 @@
     <t>USER_STATE</t>
   </si>
   <si>
-    <t>ID (PK)</t>
-  </si>
-  <si>
     <t>USER_STATE_ID (PK)</t>
   </si>
   <si>
-    <t>USER_ID (PK, FK)</t>
-  </si>
-  <si>
-    <t>USER_ID</t>
-  </si>
-  <si>
     <t>REQUESTED_ACCESS_START_TIME</t>
   </si>
   <si>
@@ -303,18 +288,12 @@
     <t>ACCESS_REQUEST_STATE_ID</t>
   </si>
   <si>
-    <t>REQUEST_ID</t>
-  </si>
-  <si>
     <t>REQUEST_ID (PK)</t>
   </si>
   <si>
     <t>USER_ACCESS_REQUEST</t>
   </si>
   <si>
-    <t>LOCK_ID</t>
-  </si>
-  <si>
     <t>LOCK_PURPOSE</t>
   </si>
   <si>
@@ -366,9 +345,6 @@
     <t>GUEST_COUNT</t>
   </si>
   <si>
-    <t>SUBSCRIPTION_PLAN_ID</t>
-  </si>
-  <si>
     <t>SUBSCRIPTION_PLANS</t>
   </si>
   <si>
@@ -381,9 +357,6 @@
     <t>PROPERTIES</t>
   </si>
   <si>
-    <t>PROPERTY_ID</t>
-  </si>
-  <si>
     <t xml:space="preserve">ADDRESS </t>
   </si>
   <si>
@@ -396,27 +369,15 @@
     <t>USER_ROLE_TYPES</t>
   </si>
   <si>
-    <t>USER_ROLE_TYPE_ID</t>
-  </si>
-  <si>
     <t>varchar(64)</t>
   </si>
   <si>
     <t>USER_PROPERTY_LOCKS</t>
   </si>
   <si>
-    <t>PROPERTY_LOCK_ID</t>
-  </si>
-  <si>
     <t xml:space="preserve">int </t>
   </si>
   <si>
-    <t>lock_activity_id</t>
-  </si>
-  <si>
-    <t>ACCESS_GIVEN_BY_USER_ID ()</t>
-  </si>
-  <si>
     <t>IS_VISIBLE_TO_GUESTS</t>
   </si>
   <si>
@@ -468,7 +429,52 @@
     <t>lock_activity_type</t>
   </si>
   <si>
-    <t>lock_activity_type_id</t>
+    <t>USER_ID (PK)</t>
+  </si>
+  <si>
+    <t>PROPERTY_ID (PK)</t>
+  </si>
+  <si>
+    <t>USER_ID (FK)</t>
+  </si>
+  <si>
+    <t>USER_ROLE_TYPE_ID (FK)</t>
+  </si>
+  <si>
+    <t>LOCK_ID (PK)</t>
+  </si>
+  <si>
+    <t>REQUEST_ID (FK)</t>
+  </si>
+  <si>
+    <t>PROPERTY_LOCK_ID(PK)</t>
+  </si>
+  <si>
+    <t>LOCK_ID (FK)</t>
+  </si>
+  <si>
+    <t>ACCESS_GIVEN_BY_USER_ID (FK)</t>
+  </si>
+  <si>
+    <t>SUBSCRIPTION_PLAN_ID (FK)</t>
+  </si>
+  <si>
+    <t>SUBSCRIPTION_PLAN_ID (PK)</t>
+  </si>
+  <si>
+    <t>lock_id (FK)</t>
+  </si>
+  <si>
+    <t>lock_activity_id (FK)</t>
+  </si>
+  <si>
+    <t>lock_activity_id (PK)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USER_ROLE_TYPE_ID (PK) </t>
+  </si>
+  <si>
+    <t>USER_STATE_ID (FK)</t>
   </si>
 </sst>
 </file>
@@ -529,7 +535,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -556,8 +562,50 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3399"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF33"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -836,7 +884,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -849,7 +897,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
@@ -873,10 +920,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="75">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2551,6 +2624,15 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF66FF33"/>
+      <color rgb="FF99FF33"/>
+      <color rgb="FF00FFFF"/>
+      <color rgb="FFFF3300"/>
+      <color rgb="FFFF3399"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3043,577 +3125,575 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.5703125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="30.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="18"/>
-    <col min="9" max="9" width="31.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17" style="18" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="18"/>
-    <col min="13" max="13" width="41.28515625" style="18" customWidth="1"/>
-    <col min="14" max="14" width="24" style="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" style="18"/>
-    <col min="17" max="17" width="34.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.5703125" style="18" customWidth="1"/>
-    <col min="19" max="19" width="14.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12" style="18" customWidth="1"/>
-    <col min="21" max="21" width="34.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="11.42578125" style="18"/>
-    <col min="24" max="24" width="10.85546875" style="18" customWidth="1"/>
-    <col min="25" max="25" width="24" style="18" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="28.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12" style="18" customWidth="1"/>
-    <col min="28" max="16384" width="11.42578125" style="18"/>
+    <col min="1" max="1" width="38.5703125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" style="17" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" style="17" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="17"/>
+    <col min="13" max="13" width="41.28515625" style="17" customWidth="1"/>
+    <col min="14" max="14" width="24" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" style="17"/>
+    <col min="17" max="17" width="34.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.5703125" style="17" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12" style="17" customWidth="1"/>
+    <col min="21" max="21" width="34.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.42578125" style="17"/>
+    <col min="24" max="24" width="10.85546875" style="17" customWidth="1"/>
+    <col min="25" max="25" width="24" style="17" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="28.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12" style="17" customWidth="1"/>
+    <col min="28" max="16384" width="11.42578125" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>12</v>
       </c>
       <c r="M1" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="J3" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="N3" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="N4" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" s="44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="22" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="J7" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="O8" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="N9" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9" s="44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="N10" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10" s="47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="N11" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="M12" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="J3" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="N3" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="O3" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="G4" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="J4" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="N4" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="J6" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="K6" s="25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="J7" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
+      <c r="N12" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="J8" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="O8" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="J9" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="M9" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="N9" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="O9" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="F10" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="G10" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="J10" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="N10" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="O10" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="J11" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="K11" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="M11" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="N11" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="O11" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="I12" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="J12" s="25" t="s">
+      <c r="O12" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="J13" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="K12" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="M12" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="N12" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="O12" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="I13" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="J13" s="25" t="s">
+      <c r="K13" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="M13" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="N13" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="O13" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y13" s="6"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B14" s="22"/>
+      <c r="I14" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="J14" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="K13" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="M13" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="N13" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="O13" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y13" s="6"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B14" s="23"/>
-      <c r="I14" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="J14" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="K14" s="25" t="s">
-        <v>45</v>
+      <c r="K14" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B15" s="29"/>
-      <c r="I15" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="J15" s="25" t="s">
+      <c r="B15" s="28"/>
+      <c r="I15" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="J15" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="K15" s="25" t="s">
-        <v>45</v>
+      <c r="K15" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="I16" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="J16" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="K16" s="38" t="s">
-        <v>45</v>
+      <c r="I16" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="J16" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="K16" s="36" t="s">
+        <v>44</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
     </row>
     <row r="17" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I17" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="J17" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="K17" s="38" t="s">
-        <v>45</v>
+      <c r="I17" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="J17" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="K17" s="36" t="s">
+        <v>44</v>
       </c>
       <c r="M17" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="O17" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="N17" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="O17" s="10" t="s">
-        <v>76</v>
       </c>
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="I18" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="J18" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="K18" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="M18" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="N18" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="O18" s="18" t="s">
-        <v>45</v>
+      <c r="I18" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="J18" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="K18" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="M18" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="N18" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="O18" s="44" t="s">
+        <v>44</v>
       </c>
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="M19" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="N19" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="O19" s="18" t="s">
-        <v>45</v>
+      <c r="M19" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="N19" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="O19" s="49" t="s">
+        <v>44</v>
       </c>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="M20" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="N20" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="O20" s="18" t="s">
-        <v>45</v>
+      <c r="M20" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="N20" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="O20" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
@@ -3621,19 +3701,19 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C21" s="6" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="M21" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="N21" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="O21" s="18" t="s">
-        <v>45</v>
+        <v>111</v>
+      </c>
+      <c r="M21" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="N21" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="O21" s="17" t="s">
+        <v>44</v>
       </c>
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
@@ -3641,565 +3721,565 @@
     </row>
     <row r="22" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>76</v>
-      </c>
       <c r="G22" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="I22" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H22" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="M22" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="N22" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="O22" s="18" t="s">
-        <v>45</v>
+      <c r="M22" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="N22" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="O22" s="17" t="s">
+        <v>44</v>
       </c>
       <c r="Y22" s="1"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="5"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C23" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="H23" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="I23" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="M23" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="N23" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="O23" s="18" t="s">
-        <v>45</v>
+      <c r="C23" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="H23" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="M23" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="N23" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="O23" s="17" t="s">
+        <v>44</v>
       </c>
       <c r="Y23"/>
       <c r="AA23" s="5"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="H24" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="M24" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="D24" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="H24" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="I24" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="M24" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="N24" s="24" t="s">
+      <c r="N24" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="O24" s="18" t="s">
-        <v>45</v>
+      <c r="O24" s="17" t="s">
+        <v>44</v>
       </c>
       <c r="Y24"/>
       <c r="AA24" s="5"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C25" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="H25" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="I25" s="25" t="s">
-        <v>45</v>
+      <c r="C25" s="64" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="H25" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="I25" s="48" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>76</v>
-      </c>
       <c r="I29" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="K29" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="J29" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="K29" s="10" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="I30" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="J30" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="K30" s="18" t="s">
-        <v>45</v>
+      <c r="A30" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I30" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="J30" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="K30" s="56" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I31" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="J31" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="K31" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B32" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I31" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="J31" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="K31" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+      <c r="C32" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
+      <c r="B34" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
+      <c r="C34" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B35" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="18" t="s">
+      <c r="B36" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I36" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="J36" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="K36" s="48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="J35" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="K35" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
+      <c r="B37" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I37" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="J37" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="K37" s="58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K36" s="25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K37" s="25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
-        <v>71</v>
-      </c>
       <c r="B38" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="25" t="s">
-        <v>45</v>
+      <c r="K38" s="24" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="s">
-        <v>72</v>
+      <c r="A39" s="17" t="s">
+        <v>70</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I39" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K39" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="K39" s="24" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="18" t="s">
-        <v>73</v>
+      <c r="A40" s="17" t="s">
+        <v>71</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I40" s="23"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
+        <v>44</v>
+      </c>
+      <c r="I40" s="22"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I41" s="6" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I42" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="K42" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="J42" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="K42" s="10" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J43" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="K43" s="25" t="s">
-        <v>45</v>
+        <v>80</v>
+      </c>
+      <c r="I43" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="J43" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="K43" s="58" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C44" s="10" t="s">
+      <c r="I44" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J44" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="K44" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="I44" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J44" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="K44" s="25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="B45" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>55</v>
+      <c r="B46" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B47" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C47" s="18" t="s">
-        <v>55</v>
+      <c r="A47" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B50" s="29"/>
+        <v>108</v>
+      </c>
+      <c r="B50" s="28"/>
     </row>
     <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B51" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B52" s="12" t="s">
+      <c r="A52" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="B52" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C52" s="12" t="s">
-        <v>45</v>
+      <c r="C52" s="62" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="B53" s="18" t="s">
+      <c r="A53" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="18" t="s">
-        <v>45</v>
+      <c r="C53" s="17" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="B54" s="18" t="s">
+      <c r="A54" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C54" s="18" t="s">
-        <v>45</v>
+      <c r="C54" s="17" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="B55" s="18" t="s">
+      <c r="A55" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C55" s="18" t="s">
-        <v>45</v>
+      <c r="C55" s="17" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="B56" s="16" t="s">
+      <c r="A56" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B56" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="17" t="s">
-        <v>45</v>
+      <c r="C56" s="16" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="18" t="s">
+      <c r="A60" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B60" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C60" s="18" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="B61" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C61" s="34" t="s">
-        <v>45</v>
+      <c r="A61" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B61" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C61" s="33" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B62" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C62" s="18" t="s">
-        <v>45</v>
+      <c r="A62" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B66" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="B67" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C67" s="25" t="s">
-        <v>45</v>
+      <c r="A67" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="B67" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="C67" s="63" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="B68" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="C68" s="25" t="s">
-        <v>45</v>
+      <c r="A68" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="B68" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C68" s="24" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -4253,7 +4333,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4305,111 +4385,111 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
         <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
         <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
         <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
         <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
